--- a/biology/Botanique/Cornales/Cornales.xlsx
+++ b/biology/Botanique/Cornales/Cornales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cornales sont un ordre de plantes dicotylédones.
-En classification classique de Cronquist (1981)[1], il comprend quatre familles :
+En classification classique de Cronquist (1981), il comprend quatre familles :
 Alangiacées
 Cornacées (famille du cornouiller)
 Garryacées
 Nyssacées
-La classification phylogénétique APG II (2003)[2] en a modifié la composition :
+La classification phylogénétique APG II (2003) en a modifié la composition :
 ordre Cornales
 : famille Cornaceae (incluant Alangium)
 :: [+ famille Nyssaceae ]
@@ -498,7 +510,7 @@
 : famille Hydrostachyaceae
 : famille Loasaceae
 NB "[+]" = famille optionnelle. Le Angiosperm Phylogeny Website [12 sept 2006] accepte cette famille optionnelle, l'ordre se compose donc de 7 familles.
-En classification phylogénétique APG III (2009)[3] il comprend 6 familles :
+En classification phylogénétique APG III (2009) il comprend 6 familles :
 ordre Cornales Link. (1829)
 : famille Cornaceae Bercht. &amp; J.Presl (1825) (incluant Nyssaceae Juss. ex Dumort.)
 : famille Curtisiaceae Takht. (1987)
@@ -506,7 +518,7 @@
 : famille Hydrangeaceae Dumort. (1829)
 : famille Hydrostachyaceae Engl. (1894)
 : famille Loasaceae Juss. (1804)
-En classification phylogénétique APG IV (2016)[4] l'ordre des Cornales comprend 7 familles car la famille des Nyssaceae est de nouveau séparée des Cornaceae.
+En classification phylogénétique APG IV (2016) l'ordre des Cornales comprend 7 familles car la famille des Nyssaceae est de nouveau séparée des Cornaceae.
 </t>
         </is>
       </c>
